--- a/data.xlsx
+++ b/data.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="seed123" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="seed321" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="seed321" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="seed123" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="seed666" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
@@ -470,16 +470,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>78.70166666666667</v>
+        <v>75.67166666666667</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7366389057465962</v>
+        <v>0.8355337594236646</v>
       </c>
       <c r="E2" t="n">
-        <v>92.18000000000001</v>
+        <v>91.23999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2771664459228516</v>
+        <v>0.3034599090576172</v>
       </c>
     </row>
     <row r="3">
@@ -490,16 +490,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>89.50166666666667</v>
+        <v>88.25333333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3541677061921117</v>
+        <v>0.3907552332575642</v>
       </c>
       <c r="E3" t="n">
-        <v>93.73999999999999</v>
+        <v>92.98</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2154456909179688</v>
+        <v>0.2393314910888672</v>
       </c>
     </row>
     <row r="4">
@@ -510,16 +510,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>91.23333333333333</v>
+        <v>90.16833333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3002475629181369</v>
+        <v>0.3313339782247284</v>
       </c>
       <c r="E4" t="n">
-        <v>94.40000000000001</v>
+        <v>93.79000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.190031315612793</v>
+        <v>0.2123741333007813</v>
       </c>
     </row>
     <row r="5">
@@ -530,16 +530,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>91.87166666666667</v>
+        <v>90.94</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2768082826503558</v>
+        <v>0.3041663258584705</v>
       </c>
       <c r="E5" t="n">
-        <v>94.84999999999999</v>
+        <v>94.28</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1742804931640625</v>
+        <v>0.1953705230712891</v>
       </c>
     </row>
     <row r="6">
@@ -550,16 +550,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>92.31166666666667</v>
+        <v>91.56666666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>0.258356396625164</v>
+        <v>0.2851512846169568</v>
       </c>
       <c r="E6" t="n">
-        <v>95.17</v>
+        <v>94.56999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1657846343994141</v>
+        <v>0.1838568450927734</v>
       </c>
     </row>
     <row r="7">
@@ -570,16 +570,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>92.83666666666667</v>
+        <v>91.88500000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.247557482644439</v>
+        <v>0.2730656161403923</v>
       </c>
       <c r="E7" t="n">
-        <v>95.31</v>
+        <v>94.73999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.159508512878418</v>
+        <v>0.1776140686035156</v>
       </c>
     </row>
     <row r="8">
@@ -590,16 +590,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>92.83833333333334</v>
+        <v>92.34333333333333</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2397691259450559</v>
+        <v>0.263132585724915</v>
       </c>
       <c r="E8" t="n">
-        <v>95.37</v>
+        <v>94.98</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1552206420898438</v>
+        <v>0.1722545227050781</v>
       </c>
     </row>
     <row r="9">
@@ -610,16 +610,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>93.13166666666666</v>
+        <v>92.38500000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2366158827416488</v>
+        <v>0.2576816437809643</v>
       </c>
       <c r="E9" t="n">
-        <v>95.45</v>
+        <v>95.06999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1530743499755859</v>
+        <v>0.1692031005859375</v>
       </c>
     </row>
     <row r="10">
@@ -630,16 +630,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>93.13</v>
+        <v>92.38833333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>0.233874204709554</v>
+        <v>0.2578019580321271</v>
       </c>
       <c r="E10" t="n">
-        <v>95.47</v>
+        <v>95.17</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1511127281188965</v>
+        <v>0.1677263549804688</v>
       </c>
     </row>
     <row r="11">
@@ -650,16 +650,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>93.20666666666666</v>
+        <v>92.57833333333333</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2303143469239476</v>
+        <v>0.2536174796664639</v>
       </c>
       <c r="E11" t="n">
-        <v>95.47</v>
+        <v>95.16</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1502376846313477</v>
+        <v>0.1659810409545898</v>
       </c>
     </row>
     <row r="12">
@@ -670,16 +670,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>93.28</v>
+        <v>92.44833333333334</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2304132732628251</v>
+        <v>0.2533254305532238</v>
       </c>
       <c r="E12" t="n">
-        <v>95.53</v>
+        <v>95.19</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1492330894470215</v>
+        <v>0.1651981369018555</v>
       </c>
     </row>
     <row r="13">
@@ -690,16 +690,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>93.41166666666666</v>
+        <v>92.69</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2269970381668191</v>
+        <v>0.2475942079660925</v>
       </c>
       <c r="E13" t="n">
-        <v>95.52</v>
+        <v>95.20999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1485793258666992</v>
+        <v>0.1644980255126953</v>
       </c>
     </row>
     <row r="14">
@@ -710,16 +710,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>93.25833333333334</v>
+        <v>92.61499999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2311375427093587</v>
+        <v>0.2496980567857909</v>
       </c>
       <c r="E14" t="n">
-        <v>95.55</v>
+        <v>95.20999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1481953063964844</v>
+        <v>0.1640593231201172</v>
       </c>
     </row>
     <row r="15">
@@ -730,16 +730,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>93.47166666666666</v>
+        <v>92.70999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2246437087289687</v>
+        <v>0.2496304227543601</v>
       </c>
       <c r="E15" t="n">
-        <v>95.55</v>
+        <v>95.22</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1479288314819336</v>
+        <v>0.1636562164306641</v>
       </c>
     </row>
     <row r="16">
@@ -750,16 +750,16 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>93.47499999999999</v>
+        <v>92.58333333333333</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2254847294525869</v>
+        <v>0.2502755772100011</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56999999999999</v>
+        <v>95.22</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1477628196716309</v>
+        <v>0.1634602615356445</v>
       </c>
     </row>
   </sheetData>
@@ -816,16 +816,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>75.66</v>
+        <v>78.685</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8354988307364459</v>
+        <v>0.7365920055649682</v>
       </c>
       <c r="E2" t="n">
-        <v>91.23999999999999</v>
+        <v>92.20999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3033367126464844</v>
+        <v>0.276997785949707</v>
       </c>
     </row>
     <row r="3">
@@ -836,16 +836,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>88.24833333333333</v>
+        <v>89.51166666666667</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3905528646383458</v>
+        <v>0.3541857247699552</v>
       </c>
       <c r="E3" t="n">
-        <v>93.01000000000001</v>
+        <v>93.75</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2391567398071289</v>
+        <v>0.2154155059814453</v>
       </c>
     </row>
     <row r="4">
@@ -856,16 +856,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>90.19166666666666</v>
+        <v>91.22833333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>0.330862920723363</v>
+        <v>0.3003418006574802</v>
       </c>
       <c r="E4" t="n">
-        <v>93.79000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2119405487060547</v>
+        <v>0.1900966720581055</v>
       </c>
     </row>
     <row r="5">
@@ -876,16 +876,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>90.93000000000001</v>
+        <v>91.89666666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3034815624245067</v>
+        <v>0.2768321561216037</v>
       </c>
       <c r="E5" t="n">
-        <v>94.31999999999999</v>
+        <v>94.84999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1948720748901367</v>
+        <v>0.1742864624023437</v>
       </c>
     </row>
     <row r="6">
@@ -896,16 +896,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>91.57166666666667</v>
+        <v>92.30500000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2845114746502341</v>
+        <v>0.2583677732248678</v>
       </c>
       <c r="E6" t="n">
-        <v>94.59</v>
+        <v>95.17</v>
       </c>
       <c r="F6" t="n">
-        <v>0.183327197265625</v>
+        <v>0.1658493759155273</v>
       </c>
     </row>
     <row r="7">
@@ -916,16 +916,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>91.92166666666667</v>
+        <v>92.83499999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2724615957087545</v>
+        <v>0.2475779410531081</v>
       </c>
       <c r="E7" t="n">
-        <v>94.75</v>
+        <v>95.31</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1771699127197266</v>
+        <v>0.1594775100708008</v>
       </c>
     </row>
     <row r="8">
@@ -936,16 +936,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>92.35666666666667</v>
+        <v>92.81333333333333</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2624822733308206</v>
+        <v>0.2397817353140126</v>
       </c>
       <c r="E8" t="n">
-        <v>94.98999999999999</v>
+        <v>95.39</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1718284103393555</v>
+        <v>0.1552336441040039</v>
       </c>
     </row>
     <row r="9">
@@ -956,16 +956,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>92.38333333333334</v>
+        <v>93.12166666666667</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2572075294247314</v>
+        <v>0.2365927603453207</v>
       </c>
       <c r="E9" t="n">
-        <v>95.11</v>
+        <v>95.47</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1687934509277344</v>
+        <v>0.1530998306274414</v>
       </c>
     </row>
     <row r="10">
@@ -976,16 +976,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>92.395</v>
+        <v>93.12666666666667</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2573112292902302</v>
+        <v>0.2339167641694231</v>
       </c>
       <c r="E10" t="n">
-        <v>95.19</v>
+        <v>95.48</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1673443252563477</v>
+        <v>0.1511174705505371</v>
       </c>
     </row>
     <row r="11">
@@ -996,16 +996,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>92.565</v>
+        <v>93.21333333333334</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2531976129676995</v>
+        <v>0.2303303486582186</v>
       </c>
       <c r="E11" t="n">
-        <v>95.17</v>
+        <v>95.47</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1656270446777344</v>
+        <v>0.1502171249389648</v>
       </c>
     </row>
     <row r="12">
@@ -1016,16 +1016,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>92.44166666666666</v>
+        <v>93.26833333333333</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2529579856629565</v>
+        <v>0.2304247054916773</v>
       </c>
       <c r="E12" t="n">
-        <v>95.20999999999999</v>
+        <v>95.53</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1648344223022461</v>
+        <v>0.1492082191467285</v>
       </c>
     </row>
     <row r="13">
@@ -1036,16 +1036,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>92.71333333333334</v>
+        <v>93.39333333333333</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2471156003219741</v>
+        <v>0.2270351129649545</v>
       </c>
       <c r="E13" t="n">
-        <v>95.22</v>
+        <v>95.54000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1641295623779297</v>
+        <v>0.14857216796875</v>
       </c>
     </row>
     <row r="14">
@@ -1056,16 +1056,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>92.61666666666666</v>
+        <v>93.25666666666666</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2492845590466629</v>
+        <v>0.2311729934217452</v>
       </c>
       <c r="E14" t="n">
-        <v>95.20999999999999</v>
+        <v>95.55</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1636966293334961</v>
+        <v>0.1481849044799805</v>
       </c>
     </row>
     <row r="15">
@@ -1076,16 +1076,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>92.69833333333334</v>
+        <v>93.46833333333333</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2491381484816578</v>
+        <v>0.2246597288553712</v>
       </c>
       <c r="E15" t="n">
-        <v>95.20999999999999</v>
+        <v>95.55</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1632846038818359</v>
+        <v>0.1479109642028809</v>
       </c>
     </row>
     <row r="16">
@@ -1096,16 +1096,16 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>92.61666666666666</v>
+        <v>93.48</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2497893441349331</v>
+        <v>0.2254989805466521</v>
       </c>
       <c r="E16" t="n">
-        <v>95.23999999999999</v>
+        <v>95.55</v>
       </c>
       <c r="F16" t="n">
-        <v>0.163094059753418</v>
+        <v>0.1477450004577637</v>
       </c>
     </row>
   </sheetData>
@@ -1162,16 +1162,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>77.51000000000001</v>
+        <v>77.505</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7734273963296083</v>
+        <v>0.7734537195644653</v>
       </c>
       <c r="E2" t="n">
-        <v>91.42</v>
+        <v>91.43000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3028614120483398</v>
+        <v>0.3029564804077148</v>
       </c>
     </row>
     <row r="3">
@@ -1182,16 +1182,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>88.31666666666666</v>
+        <v>88.30833333333334</v>
       </c>
       <c r="D3" t="n">
-        <v>0.390878008841388</v>
+        <v>0.391006332144999</v>
       </c>
       <c r="E3" t="n">
-        <v>92.86</v>
+        <v>92.81999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2419696960449219</v>
+        <v>0.2421015014648437</v>
       </c>
     </row>
     <row r="4">
@@ -1202,16 +1202,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>90.06666666666666</v>
+        <v>90.06</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3361691997916714</v>
+        <v>0.3362909996195007</v>
       </c>
       <c r="E4" t="n">
-        <v>93.58</v>
+        <v>93.59</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2167108688354492</v>
+        <v>0.2167267211914063</v>
       </c>
     </row>
     <row r="5">
@@ -1222,16 +1222,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>90.895</v>
+        <v>90.89</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3080058689040543</v>
+        <v>0.3080888631692065</v>
       </c>
       <c r="E5" t="n">
-        <v>94.23</v>
+        <v>94.22</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2000672454833984</v>
+        <v>0.2002516387939453</v>
       </c>
     </row>
     <row r="6">
@@ -1242,16 +1242,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>91.35166666666667</v>
+        <v>91.33499999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2940065496480033</v>
+        <v>0.2941006491465101</v>
       </c>
       <c r="E6" t="n">
-        <v>94.41</v>
+        <v>94.47</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1903354202270508</v>
+        <v>0.1904030319213867</v>
       </c>
     </row>
     <row r="7">
@@ -1262,16 +1262,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>91.79166666666667</v>
+        <v>91.78333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2806225524607625</v>
+        <v>0.280647358692277</v>
       </c>
       <c r="E7" t="n">
-        <v>94.67</v>
+        <v>94.68000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1843586364746094</v>
+        <v>0.1843891418457031</v>
       </c>
     </row>
     <row r="8">
@@ -1285,13 +1285,13 @@
         <v>91.87</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2745769531376708</v>
+        <v>0.2745923478640854</v>
       </c>
       <c r="E8" t="n">
-        <v>94.72</v>
+        <v>94.7</v>
       </c>
       <c r="F8" t="n">
-        <v>0.180310124206543</v>
+        <v>0.1803378494262695</v>
       </c>
     </row>
     <row r="9">
@@ -1302,16 +1302,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>92.11499999999999</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2706956872776119</v>
+        <v>0.2706890839106366</v>
       </c>
       <c r="E9" t="n">
-        <v>94.79000000000001</v>
+        <v>94.77</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1779260284423828</v>
+        <v>0.1779589813232422</v>
       </c>
     </row>
     <row r="10">
@@ -1322,16 +1322,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>92.13</v>
+        <v>92.13833333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2689889257491779</v>
+        <v>0.2689781257513362</v>
       </c>
       <c r="E10" t="n">
-        <v>94.83</v>
+        <v>94.81</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1761269821166992</v>
+        <v>0.1761278869628906</v>
       </c>
     </row>
     <row r="11">
@@ -1342,16 +1342,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>92.26166666666667</v>
+        <v>92.255</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2636282972888207</v>
+        <v>0.2636351978251421</v>
       </c>
       <c r="E11" t="n">
-        <v>94.90000000000001</v>
+        <v>94.92</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1746969512939453</v>
+        <v>0.1746974472045899</v>
       </c>
     </row>
     <row r="12">
@@ -1362,16 +1362,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>92.36333333333333</v>
+        <v>92.36</v>
       </c>
       <c r="D12" t="n">
-        <v>0.26283089427758</v>
+        <v>0.2628379617013466</v>
       </c>
       <c r="E12" t="n">
-        <v>94.87</v>
+        <v>94.88</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1739951156616211</v>
+        <v>0.1739940856933594</v>
       </c>
     </row>
     <row r="13">
@@ -1382,16 +1382,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>92.34333333333333</v>
+        <v>92.345</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2608096929255134</v>
+        <v>0.2608326099582636</v>
       </c>
       <c r="E13" t="n">
-        <v>94.93000000000001</v>
+        <v>94.94</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1733089691162109</v>
+        <v>0.1733149932861328</v>
       </c>
     </row>
     <row r="14">
@@ -1402,16 +1402,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>92.325</v>
+        <v>92.31</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2607944749875554</v>
+        <v>0.2608350233188761</v>
       </c>
       <c r="E14" t="n">
         <v>94.93000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>0.172812434387207</v>
+        <v>0.1728168716430664</v>
       </c>
     </row>
     <row r="15">
@@ -1422,16 +1422,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>92.37</v>
+        <v>92.36833333333334</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2608175519734685</v>
+        <v>0.2608553729593944</v>
       </c>
       <c r="E15" t="n">
         <v>94.95</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1724772964477539</v>
+        <v>0.1724818359375</v>
       </c>
     </row>
     <row r="16">
@@ -1442,16 +1442,16 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>92.43833333333333</v>
+        <v>92.44166666666666</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2588241606164398</v>
+        <v>0.2588414039923502</v>
       </c>
       <c r="E16" t="n">
-        <v>94.93000000000001</v>
+        <v>94.94</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1723145797729492</v>
+        <v>0.172320068359375</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -470,16 +470,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>75.67166666666667</v>
+        <v>75.655</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8355337594236646</v>
+        <v>0.8354781169785874</v>
       </c>
       <c r="E2" t="n">
         <v>91.23999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3034599090576172</v>
+        <v>0.3033123748779297</v>
       </c>
     </row>
     <row r="3">
@@ -490,16 +490,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>88.25333333333333</v>
+        <v>88.25833333333334</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3907552332575642</v>
+        <v>0.3904802008255966</v>
       </c>
       <c r="E3" t="n">
-        <v>92.98</v>
+        <v>93.02</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2393314910888672</v>
+        <v>0.2390561004638672</v>
       </c>
     </row>
     <row r="4">
@@ -510,16 +510,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>90.16833333333334</v>
+        <v>90.19166666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3313339782247284</v>
+        <v>0.3307445303066326</v>
       </c>
       <c r="E4" t="n">
-        <v>93.79000000000001</v>
+        <v>93.78</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2123741333007813</v>
+        <v>0.2119788848876953</v>
       </c>
     </row>
     <row r="5">
@@ -530,16 +530,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>90.94</v>
+        <v>90.94333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3041663258584705</v>
+        <v>0.3035450525152912</v>
       </c>
       <c r="E5" t="n">
-        <v>94.28</v>
+        <v>94.33</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1953705230712891</v>
+        <v>0.1949114883422852</v>
       </c>
     </row>
     <row r="6">
@@ -550,16 +550,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>91.56666666666666</v>
+        <v>91.58666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2851512846169568</v>
+        <v>0.2845139923586901</v>
       </c>
       <c r="E6" t="n">
-        <v>94.56999999999999</v>
+        <v>94.59</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1838568450927734</v>
+        <v>0.1833888961791992</v>
       </c>
     </row>
     <row r="7">
@@ -570,16 +570,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>91.88500000000001</v>
+        <v>91.92333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2730656161403923</v>
+        <v>0.2725281815634353</v>
       </c>
       <c r="E7" t="n">
-        <v>94.73999999999999</v>
+        <v>94.75</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1776140686035156</v>
+        <v>0.1772690948486328</v>
       </c>
     </row>
     <row r="8">
@@ -590,16 +590,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>92.34333333333333</v>
+        <v>92.355</v>
       </c>
       <c r="D8" t="n">
-        <v>0.263132585724915</v>
+        <v>0.262540995828442</v>
       </c>
       <c r="E8" t="n">
-        <v>94.98</v>
+        <v>95.03</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1722545227050781</v>
+        <v>0.1719330551147461</v>
       </c>
     </row>
     <row r="9">
@@ -610,16 +610,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>92.38500000000001</v>
+        <v>92.39</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2576816437809643</v>
+        <v>0.2572215560243836</v>
       </c>
       <c r="E9" t="n">
-        <v>95.06999999999999</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1692031005859375</v>
+        <v>0.1688946884155273</v>
       </c>
     </row>
     <row r="10">
@@ -630,16 +630,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>92.38833333333334</v>
+        <v>92.375</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2578019580321271</v>
+        <v>0.2573404921842282</v>
       </c>
       <c r="E10" t="n">
-        <v>95.17</v>
+        <v>95.16</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1677263549804688</v>
+        <v>0.1674347732543945</v>
       </c>
     </row>
     <row r="11">
@@ -650,16 +650,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>92.57833333333333</v>
+        <v>92.57166666666667</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2536174796664639</v>
+        <v>0.2532278900461665</v>
       </c>
       <c r="E11" t="n">
-        <v>95.16</v>
+        <v>95.18000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1659810409545898</v>
+        <v>0.1657043304443359</v>
       </c>
     </row>
     <row r="12">
@@ -670,16 +670,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>92.44833333333334</v>
+        <v>92.43833333333333</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2533254305532238</v>
+        <v>0.252997780381553</v>
       </c>
       <c r="E12" t="n">
-        <v>95.19</v>
+        <v>95.22</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1651981369018555</v>
+        <v>0.1649362258911133</v>
       </c>
     </row>
     <row r="13">
@@ -690,16 +690,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>92.69</v>
+        <v>92.71833333333333</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2475942079660925</v>
+        <v>0.2471677145557299</v>
       </c>
       <c r="E13" t="n">
-        <v>95.20999999999999</v>
+        <v>95.23</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1644980255126953</v>
+        <v>0.1642366241455078</v>
       </c>
     </row>
     <row r="14">
@@ -710,16 +710,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>92.61499999999999</v>
+        <v>92.62166666666667</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2496980567857909</v>
+        <v>0.2492816112300099</v>
       </c>
       <c r="E14" t="n">
-        <v>95.20999999999999</v>
+        <v>95.22</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1640593231201172</v>
+        <v>0.1638024566650391</v>
       </c>
     </row>
     <row r="15">
@@ -730,16 +730,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>92.70999999999999</v>
+        <v>92.70666666666666</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2496304227543601</v>
+        <v>0.2491870173362336</v>
       </c>
       <c r="E15" t="n">
-        <v>95.22</v>
+        <v>95.2</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1636562164306641</v>
+        <v>0.1634000747680664</v>
       </c>
     </row>
     <row r="16">
@@ -750,16 +750,16 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>92.58333333333333</v>
+        <v>92.61833333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2502755772100011</v>
+        <v>0.2498195675183842</v>
       </c>
       <c r="E16" t="n">
-        <v>95.22</v>
+        <v>95.2</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1634602615356445</v>
+        <v>0.1632015747070313</v>
       </c>
     </row>
   </sheetData>
@@ -816,16 +816,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>78.685</v>
+        <v>78.69666666666667</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7365920055649682</v>
+        <v>0.7366376650104645</v>
       </c>
       <c r="E2" t="n">
-        <v>92.20999999999999</v>
+        <v>92.18000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.276997785949707</v>
+        <v>0.2772379699707031</v>
       </c>
     </row>
     <row r="3">
@@ -836,16 +836,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>89.51166666666667</v>
+        <v>89.52833333333334</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3541857247699552</v>
+        <v>0.3542058158403775</v>
       </c>
       <c r="E3" t="n">
-        <v>93.75</v>
+        <v>93.73999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2154155059814453</v>
+        <v>0.2154877639770508</v>
       </c>
     </row>
     <row r="4">
@@ -856,16 +856,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>91.22833333333334</v>
+        <v>91.21833333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3003418006574802</v>
+        <v>0.3003665808357918</v>
       </c>
       <c r="E4" t="n">
-        <v>94.40000000000001</v>
+        <v>94.34999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1900966720581055</v>
+        <v>0.189974153137207</v>
       </c>
     </row>
     <row r="5">
@@ -876,16 +876,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>91.89666666666666</v>
+        <v>91.875</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2768321561216037</v>
+        <v>0.2769121744239064</v>
       </c>
       <c r="E5" t="n">
-        <v>94.84999999999999</v>
+        <v>94.87</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1742864624023437</v>
+        <v>0.1743014495849609</v>
       </c>
     </row>
     <row r="6">
@@ -896,16 +896,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>92.30500000000001</v>
+        <v>92.29833333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2583677732248678</v>
+        <v>0.2584769908966286</v>
       </c>
       <c r="E6" t="n">
         <v>95.17</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1658493759155273</v>
+        <v>0.165877416229248</v>
       </c>
     </row>
     <row r="7">
@@ -916,16 +916,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>92.83499999999999</v>
+        <v>92.84333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2475779410531081</v>
+        <v>0.2476214551285449</v>
       </c>
       <c r="E7" t="n">
-        <v>95.31</v>
+        <v>95.3</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1594775100708008</v>
+        <v>0.1595056335449219</v>
       </c>
     </row>
     <row r="8">
@@ -936,16 +936,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>92.81333333333333</v>
+        <v>92.83166666666666</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2397817353140126</v>
+        <v>0.2398565024463162</v>
       </c>
       <c r="E8" t="n">
-        <v>95.39</v>
+        <v>95.38</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1552336441040039</v>
+        <v>0.1552674285888672</v>
       </c>
     </row>
     <row r="9">
@@ -959,13 +959,13 @@
         <v>93.12166666666667</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2365927603453207</v>
+        <v>0.2366627934835613</v>
       </c>
       <c r="E9" t="n">
-        <v>95.47</v>
+        <v>95.48</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1530998306274414</v>
+        <v>0.1531300277709961</v>
       </c>
     </row>
     <row r="10">
@@ -976,16 +976,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>93.12666666666667</v>
+        <v>93.13666666666667</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2339167641694231</v>
+        <v>0.2339289234732705</v>
       </c>
       <c r="E10" t="n">
         <v>95.48</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1511174705505371</v>
+        <v>0.1511703659057617</v>
       </c>
     </row>
     <row r="11">
@@ -996,16 +996,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>93.21333333333334</v>
+        <v>93.205</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2303303486582186</v>
+        <v>0.230335431932005</v>
       </c>
       <c r="E11" t="n">
-        <v>95.47</v>
+        <v>95.48</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1502171249389648</v>
+        <v>0.1502722717285156</v>
       </c>
     </row>
     <row r="12">
@@ -1019,13 +1019,13 @@
         <v>93.26833333333333</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2304247054916773</v>
+        <v>0.2304790720009982</v>
       </c>
       <c r="E12" t="n">
-        <v>95.53</v>
+        <v>95.54000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1492082191467285</v>
+        <v>0.1492412254333496</v>
       </c>
     </row>
     <row r="13">
@@ -1036,16 +1036,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>93.39333333333333</v>
+        <v>93.42</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2270351129649545</v>
+        <v>0.2270480468472057</v>
       </c>
       <c r="E13" t="n">
         <v>95.54000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>0.14857216796875</v>
+        <v>0.1486104965209961</v>
       </c>
     </row>
     <row r="14">
@@ -1056,16 +1056,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>93.25666666666666</v>
+        <v>93.25333333333333</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2311729934217452</v>
+        <v>0.2312002269221521</v>
       </c>
       <c r="E14" t="n">
         <v>95.55</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1481849044799805</v>
+        <v>0.1482248268127442</v>
       </c>
     </row>
     <row r="15">
@@ -1076,16 +1076,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>93.46833333333333</v>
+        <v>93.47166666666666</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2246597288553712</v>
+        <v>0.2246769829623417</v>
       </c>
       <c r="E15" t="n">
         <v>95.55</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1479109642028809</v>
+        <v>0.1479613052368164</v>
       </c>
     </row>
     <row r="16">
@@ -1096,16 +1096,16 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>93.48</v>
+        <v>93.49166666666666</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2254989805466521</v>
+        <v>0.2255430646272484</v>
       </c>
       <c r="E16" t="n">
         <v>95.55</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1477450004577637</v>
+        <v>0.1477952735900879</v>
       </c>
     </row>
   </sheetData>
@@ -1162,16 +1162,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>77.505</v>
+        <v>77.48999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7734537195644653</v>
+        <v>0.7734828892388323</v>
       </c>
       <c r="E2" t="n">
-        <v>91.43000000000001</v>
+        <v>91.36</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3029564804077148</v>
+        <v>0.3028518127441406</v>
       </c>
     </row>
     <row r="3">
@@ -1182,16 +1182,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>88.30833333333334</v>
+        <v>88.31166666666667</v>
       </c>
       <c r="D3" t="n">
-        <v>0.391006332144999</v>
+        <v>0.3908448622647379</v>
       </c>
       <c r="E3" t="n">
-        <v>92.81999999999999</v>
+        <v>92.84</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2421015014648437</v>
+        <v>0.2419212326049805</v>
       </c>
     </row>
     <row r="4">
@@ -1202,16 +1202,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>90.06</v>
+        <v>90.07833333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3362909996195007</v>
+        <v>0.3361244711047932</v>
       </c>
       <c r="E4" t="n">
-        <v>93.59</v>
+        <v>93.56999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2167267211914063</v>
+        <v>0.2166549865722656</v>
       </c>
     </row>
     <row r="5">
@@ -1222,16 +1222,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>90.89</v>
+        <v>90.85166666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3080888631692065</v>
+        <v>0.3079591705473755</v>
       </c>
       <c r="E5" t="n">
-        <v>94.22</v>
+        <v>94.23</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2002516387939453</v>
+        <v>0.2000517211914062</v>
       </c>
     </row>
     <row r="6">
@@ -1242,16 +1242,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>91.33499999999999</v>
+        <v>91.31999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2941006491465101</v>
+        <v>0.2940607627254051</v>
       </c>
       <c r="E6" t="n">
-        <v>94.47</v>
+        <v>94.45999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1904030319213867</v>
+        <v>0.1901907073974609</v>
       </c>
     </row>
     <row r="7">
@@ -1262,16 +1262,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>91.78333333333333</v>
+        <v>91.80166666666666</v>
       </c>
       <c r="D7" t="n">
-        <v>0.280647358692277</v>
+        <v>0.2805811039039067</v>
       </c>
       <c r="E7" t="n">
         <v>94.68000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1843891418457031</v>
+        <v>0.1842803482055664</v>
       </c>
     </row>
     <row r="8">
@@ -1282,16 +1282,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>91.87</v>
+        <v>91.86833333333334</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2745923478640854</v>
+        <v>0.274564230071901</v>
       </c>
       <c r="E8" t="n">
-        <v>94.7</v>
+        <v>94.70999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1803378494262695</v>
+        <v>0.1802948059082031</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>92.09999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2706890839106366</v>
+        <v>0.2707095187641919</v>
       </c>
       <c r="E9" t="n">
-        <v>94.77</v>
+        <v>94.78</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1779589813232422</v>
+        <v>0.1778681747436524</v>
       </c>
     </row>
     <row r="10">
@@ -1322,16 +1322,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>92.13833333333334</v>
+        <v>92.13333333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2689781257513362</v>
+        <v>0.2690139985931263</v>
       </c>
       <c r="E10" t="n">
-        <v>94.81</v>
+        <v>94.83</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1761278869628906</v>
+        <v>0.1760822845458984</v>
       </c>
     </row>
     <row r="11">
@@ -1342,16 +1342,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>92.255</v>
+        <v>92.26166666666667</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2636351978251421</v>
+        <v>0.2636311617789111</v>
       </c>
       <c r="E11" t="n">
-        <v>94.92</v>
+        <v>94.88</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1746974472045899</v>
+        <v>0.1746496337890625</v>
       </c>
     </row>
     <row r="12">
@@ -1362,16 +1362,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>92.36</v>
+        <v>92.345</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2628379617013466</v>
+        <v>0.2628447991698535</v>
       </c>
       <c r="E12" t="n">
-        <v>94.88</v>
+        <v>94.84999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1739940856933594</v>
+        <v>0.1739530975341797</v>
       </c>
     </row>
     <row r="13">
@@ -1382,16 +1382,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>92.345</v>
+        <v>92.35333333333334</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2608326099582636</v>
+        <v>0.2608603731250522</v>
       </c>
       <c r="E13" t="n">
-        <v>94.94</v>
+        <v>94.91</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1733149932861328</v>
+        <v>0.1732700942993164</v>
       </c>
     </row>
     <row r="14">
@@ -1402,16 +1402,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>92.31</v>
+        <v>92.30833333333334</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2608350233188761</v>
+        <v>0.2608173627104523</v>
       </c>
       <c r="E14" t="n">
-        <v>94.93000000000001</v>
+        <v>94.92</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1728168716430664</v>
+        <v>0.1727697280883789</v>
       </c>
     </row>
     <row r="15">
@@ -1422,16 +1422,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>92.36833333333334</v>
+        <v>92.36499999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2608553729593944</v>
+        <v>0.2608665699468874</v>
       </c>
       <c r="E15" t="n">
-        <v>94.95</v>
+        <v>94.92</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1724818359375</v>
+        <v>0.1724329513549805</v>
       </c>
     </row>
     <row r="16">
@@ -1442,16 +1442,16 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>92.44166666666666</v>
+        <v>92.44333333333333</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2588414039923502</v>
+        <v>0.2587811781732894</v>
       </c>
       <c r="E16" t="n">
-        <v>94.94</v>
+        <v>94.93000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>0.172320068359375</v>
+        <v>0.1722757919311523</v>
       </c>
     </row>
   </sheetData>
